--- a/natmiOut/YoungD7/LR-pairs_lrc2p/F9-Lrp1.xlsx
+++ b/natmiOut/YoungD7/LR-pairs_lrc2p/F9-Lrp1.xlsx
@@ -531,16 +531,16 @@
         <v>23</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>0.339782994100393</v>
+        <v>0.3743903333333334</v>
       </c>
       <c r="H2">
-        <v>0.339782994100393</v>
+        <v>1.123171</v>
       </c>
       <c r="I2">
         <v>1</v>
@@ -549,34 +549,34 @@
         <v>1</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>7.07906466649016</v>
+        <v>23.63579766666667</v>
       </c>
       <c r="N2">
-        <v>7.07906466649016</v>
+        <v>70.907393</v>
       </c>
       <c r="O2">
-        <v>0.02217750240725959</v>
+        <v>0.06827844587621175</v>
       </c>
       <c r="P2">
-        <v>0.02217750240725959</v>
+        <v>0.06827844587621175</v>
       </c>
       <c r="Q2">
-        <v>2.405345787810326</v>
+        <v>8.849014167022556</v>
       </c>
       <c r="R2">
-        <v>2.405345787810326</v>
+        <v>79.64112750320301</v>
       </c>
       <c r="S2">
-        <v>0.02217750240725959</v>
+        <v>0.06827844587621175</v>
       </c>
       <c r="T2">
-        <v>0.02217750240725959</v>
+        <v>0.06827844587621175</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -593,16 +593,16 @@
         <v>24</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>0.339782994100393</v>
+        <v>0.3743903333333334</v>
       </c>
       <c r="H3">
-        <v>0.339782994100393</v>
+        <v>1.123171</v>
       </c>
       <c r="I3">
         <v>1</v>
@@ -611,34 +611,34 @@
         <v>1</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>180.914034162936</v>
+        <v>181.2883913333334</v>
       </c>
       <c r="N3">
-        <v>180.914034162936</v>
+        <v>543.865174</v>
       </c>
       <c r="O3">
-        <v>0.5667728177633442</v>
+        <v>0.5237009467675041</v>
       </c>
       <c r="P3">
-        <v>0.5667728177633442</v>
+        <v>0.523700946767504</v>
       </c>
       <c r="Q3">
-        <v>61.47151220266317</v>
+        <v>67.87262126075046</v>
       </c>
       <c r="R3">
-        <v>61.47151220266317</v>
+        <v>610.8535913467541</v>
       </c>
       <c r="S3">
-        <v>0.5667728177633442</v>
+        <v>0.5237009467675041</v>
       </c>
       <c r="T3">
-        <v>0.5667728177633442</v>
+        <v>0.523700946767504</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -655,16 +655,16 @@
         <v>20</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>0.339782994100393</v>
+        <v>0.3743903333333334</v>
       </c>
       <c r="H4">
-        <v>0.339782994100393</v>
+        <v>1.123171</v>
       </c>
       <c r="I4">
         <v>1</v>
@@ -673,34 +673,34 @@
         <v>1</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>101.162170664531</v>
+        <v>111.1005463333333</v>
       </c>
       <c r="N4">
-        <v>101.162170664531</v>
+        <v>333.301639</v>
       </c>
       <c r="O4">
-        <v>0.3169238295076338</v>
+        <v>0.3209442197221123</v>
       </c>
       <c r="P4">
-        <v>0.3169238295076338</v>
+        <v>0.3209442197221123</v>
       </c>
       <c r="Q4">
-        <v>34.37318523808928</v>
+        <v>41.59497057525211</v>
       </c>
       <c r="R4">
-        <v>34.37318523808928</v>
+        <v>374.354735177269</v>
       </c>
       <c r="S4">
-        <v>0.3169238295076338</v>
+        <v>0.3209442197221123</v>
       </c>
       <c r="T4">
-        <v>0.3169238295076338</v>
+        <v>0.3209442197221123</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -717,16 +717,16 @@
         <v>25</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>0.339782994100393</v>
+        <v>0.3743903333333334</v>
       </c>
       <c r="H5">
-        <v>0.339782994100393</v>
+        <v>1.123171</v>
       </c>
       <c r="I5">
         <v>1</v>
@@ -735,34 +735,34 @@
         <v>1</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>30.0449964554177</v>
+        <v>30.14303933333333</v>
       </c>
       <c r="N5">
-        <v>30.0449964554177</v>
+        <v>90.42911799999999</v>
       </c>
       <c r="O5">
-        <v>0.0941258503217627</v>
+        <v>0.08707638763417187</v>
       </c>
       <c r="P5">
-        <v>0.0941258503217627</v>
+        <v>0.08707638763417187</v>
       </c>
       <c r="Q5">
-        <v>10.20877885335752</v>
+        <v>11.28526254368644</v>
       </c>
       <c r="R5">
-        <v>10.20877885335752</v>
+        <v>101.567362893178</v>
       </c>
       <c r="S5">
-        <v>0.0941258503217627</v>
+        <v>0.08707638763417187</v>
       </c>
       <c r="T5">
-        <v>0.0941258503217627</v>
+        <v>0.08707638763417187</v>
       </c>
     </row>
   </sheetData>
